--- a/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
+++ b/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\01 応募企業\03 ソプラ株式会社\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A7D086-41FF-4C83-AFB2-EFCEF934B350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7CBE-C6D6-42B0-A6ED-D861FE1EDA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -301,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,9 +397,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +437,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -543,7 +543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,151 +695,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCB8AF-8B67-458A-B2F2-8272728B276E}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="181.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B47" t="s">
         <v>27</v>
       </c>
@@ -858,94 +858,95 @@
       <selection activeCell="C15" sqref="C15:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="3.125" style="2"/>
     <col min="3" max="3" width="152.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -958,123 +959,124 @@
       <selection activeCell="C27" sqref="C3:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="3.125" style="2"/>
     <col min="3" max="3" width="152.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A10" s="3"/>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A12" s="3"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A13" s="3"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A29" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
+++ b/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\01 応募企業\03 ソプラ株式会社\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7CBE-C6D6-42B0-A6ED-D861FE1EDA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5415E25E-3CDC-48DC-8E15-C552D7289B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
   </bookViews>
@@ -38,13 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>１．自己紹介</t>
-    <rPh sb="2" eb="6">
-      <t>ジコショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>出村和彦と申します。</t>
@@ -80,6 +76,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>以下、自己PR</t>
+  </si>
+  <si>
+    <t>趣味：筋力トレーニング</t>
+  </si>
+  <si>
+    <t>　健康を重視し、毅然とした精神力を養うために積極的に行っています。</t>
+  </si>
+  <si>
+    <t>　また体力だけでなく、意志の力や継続力も身に付きました。</t>
+  </si>
+  <si>
+    <t>特技：決めたことはストイックにやり遂げること</t>
+  </si>
+  <si>
+    <t>　目標や課題に向かって情熱を注ぎ、最後まで諦めずに取り組むことができます。</t>
+  </si>
+  <si>
+    <t>　計画を立て、着実に目標に向かって進む姿勢が強みです。</t>
+  </si>
+  <si>
     <t>２．職務経歴</t>
     <rPh sb="2" eb="6">
       <t>ショクムケイレキ</t>
@@ -164,6 +181,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>新卒採用された株式会社電算情報技研では、６年間で基本設計～保守・運用まで経験しました。</t>
+  </si>
+  <si>
+    <t>転職後のフルウィル株式会社では、２年間で主にテスト動作確認を担当しました。</t>
+  </si>
+  <si>
     <t>３．志望動機</t>
     <rPh sb="2" eb="4">
       <t>シボウ</t>
@@ -180,88 +203,109 @@
     <t>やりがいを感じることが少なく、将来的にシステムエンジニアとしての成長が難しいと感じました。</t>
   </si>
   <si>
+    <t>また、自身の障害特性からもクローズ就労で働き続けることも難しいと感じています。</t>
+  </si>
+  <si>
+    <t>御社では、経験してきた保険・金融業界の他に、様々な分野でWebシステム開発を事業としており、かつオープン就労で求人をされています。</t>
+  </si>
+  <si>
+    <t>私は、御社ならば長期的な視点で考え、システムエンジニアとしての成長を実感しながら働くことができるのではないかと考え、志望いたしました。</t>
+  </si>
+  <si>
+    <t>４．退職（転職）理由</t>
+  </si>
+  <si>
+    <t>これまで2社の経験を通じて、テスト動作確認作業が業務の大半を占めていましたが、それによりシステムエンジニアとしての成長に制限を感じました。</t>
+  </si>
+  <si>
+    <t>特に詳細設計工程での経験を得た上で開発部門への異動を試みましたが、叶いませんでした。</t>
+  </si>
+  <si>
+    <t>また、自身の障害特性で業務に支障をきたすことが多く、クローズ就労で働き続けることに不安を感じていました。</t>
+  </si>
+  <si>
+    <t>前職での収入や人間関係に不満はなかったものの、日々の業務のやりがい不足や将来の見通しが不透明であったため、退職を決断しました。</t>
+  </si>
+  <si>
+    <t>５．積極的に現役エンジニアの方々にお話を伺いながら</t>
+  </si>
+  <si>
+    <t>現在「システムエンジニアとしての成長」をテーマにしているコミュニティに所属しており、様々な意見交換をしております。</t>
+  </si>
+  <si>
+    <t>在職中の悩みや、今後システムエンジニアとしてどうなりたいのか等</t>
+  </si>
+  <si>
+    <t>６．「コミュニケーション」「優先順位」の大切さを学び、何をするようにしたのか</t>
+  </si>
+  <si>
+    <t>コミュニケーション</t>
+  </si>
+  <si>
+    <t>　作業中に分からないことが出てきても、「質問」という形にすることができず、周りに質問することができませんでした。</t>
+  </si>
+  <si>
+    <t>　その後は、メール等のコミュニケーションツールを用いて、文字でやり取りすることを取り入れました。</t>
+  </si>
+  <si>
+    <t>優先順位</t>
+  </si>
+  <si>
+    <t>　五月雨式に別々の人から作業が割り振られた場合、各々に期限を確認し、優先順位をつけるようにしました。</t>
+  </si>
+  <si>
+    <t>７．逆質問</t>
+  </si>
+  <si>
+    <t>ホームページ等を確認しても記載が見当たりませんでしたので、質問させていただきます。</t>
+  </si>
+  <si>
+    <t>１．今回の求人では障害者雇用ということですが、御社が障害者に対して、どの程度の理解があるのか？</t>
+  </si>
+  <si>
+    <t>２．履歴書や職務経歴書の他に、私が悩んでいる障害特性をまとめた障害特性シートを資料として添付しましたが、</t>
+  </si>
+  <si>
+    <t>御社では、その特性を把握した上での現場配属などしていただけるのでしょうか？</t>
+  </si>
+  <si>
+    <t>１．自分の転職の軸</t>
+  </si>
+  <si>
+    <t>今回の転職において自分が必ず実現させたい最優先事項</t>
+  </si>
+  <si>
+    <t>・Webアプリケーション開発業務でスキルアップしたい</t>
+  </si>
+  <si>
+    <t>・障害特性を理解している企業で働きたい</t>
+  </si>
+  <si>
+    <t>２．志望企業の魅力</t>
+  </si>
+  <si>
+    <t>志望企業のことを褒める</t>
+  </si>
+  <si>
+    <t>・志望企業は経験してきた保険・金融業界の他に、様々な分野でWebシステム開発を事業としている</t>
+  </si>
+  <si>
+    <t>・障害者雇用で採用している（障害特性で悩んでいる人への理解がある）</t>
+  </si>
+  <si>
+    <t>３．マッチング</t>
+  </si>
+  <si>
+    <t>①自分の転職の軸、自分がこれから働く上で最優先にしたいポイント</t>
+  </si>
+  <si>
+    <t>②貴社の魅力がマッチしていると、だから貴社を志望している</t>
+  </si>
+  <si>
     <t>また、自身の障害特性からも会社側からの理解が得られない中で働き続けることも難しいと感じています。</t>
   </si>
   <si>
     <t>御社では、経験してきた保険・金融業界の他に、様々な分野でWebシステム開発を事業としており、かつ、障害特性で悩んでいる人への理解があると考えいます。</t>
-  </si>
-  <si>
-    <t>私は、御社ならば長期的な視点で考え、システムエンジニアとしての成長を実感しながら働くことができるのではないかと考え、志望いたしました。</t>
-  </si>
-  <si>
-    <t>４．退職（転職）理由</t>
-  </si>
-  <si>
-    <t>これまで2社の経験を通じて、テスト動作確認作業が業務の大半を占めていましたが、それによりシステムエンジニアとしての成長に制限を感じました。</t>
-  </si>
-  <si>
-    <t>特に詳細設計工程での経験を得た上で開発部門への異動を試みましたが、叶いませんでした。</t>
-  </si>
-  <si>
-    <t>また、自身の障害特性に関する会社側の理解不足もあり、将来的な展望に不安を感じており、御社では障害特性に理解があり、多様な分野での成長が期待できる環境で働きたいと考えています。</t>
-  </si>
-  <si>
-    <t>前職での収入や人間関係に不満はなかったものの、日々の業務のやりがい不足や将来の見通しが不透明であったため、退職を決断しました。</t>
-  </si>
-  <si>
-    <t>５．積極的に現役エンジニアの方々にお話を伺いながら</t>
-  </si>
-  <si>
-    <t>現在「システムエンジニアとしての成長」をテーマにしているコミュニティに所属しており、様々な意見交換をしております。</t>
-  </si>
-  <si>
-    <t>在職中の悩みや、今後システムエンジニアとしてどうなりたいのか等</t>
-  </si>
-  <si>
-    <t>６．「コミュニケーション」「優先順位」の大切さを学び、何をするようにしたのか</t>
-  </si>
-  <si>
-    <t>コミュニケーション</t>
-  </si>
-  <si>
-    <t>　作業中に分からないことが出てきても、「質問」という形にすることができず、周りに質問することができませんでした。</t>
-  </si>
-  <si>
-    <t>　その後は、メール等のコミュニケーションツールを用いて、文字でやり取りすることを取り入れました。</t>
-  </si>
-  <si>
-    <t>優先順位</t>
-  </si>
-  <si>
-    <t>　五月雨式に別々の人から作業が割り振られた場合、各々に期限を確認し、優先順位をつけるようにしました。</t>
-  </si>
-  <si>
-    <t>１．自分の転職の軸</t>
-  </si>
-  <si>
-    <t>今回の転職において自分が必ず実現させたい最優先事項</t>
-  </si>
-  <si>
-    <t>・Webアプリケーション開発業務でスキルアップしたい</t>
-  </si>
-  <si>
-    <t>・障害特性を理解している企業で働きたい</t>
-  </si>
-  <si>
-    <t>２．志望企業の魅力</t>
-  </si>
-  <si>
-    <t>志望企業のことを褒める</t>
-  </si>
-  <si>
-    <t>・志望企業は経験してきた保険・金融業界の他に、様々な分野でWebシステム開発を事業としている</t>
-  </si>
-  <si>
-    <t>・障害者雇用で採用している（障害特性で悩んでいる人への理解がある）</t>
-  </si>
-  <si>
-    <t>３．マッチング</t>
-  </si>
-  <si>
-    <t>①自分の転職の軸、自分がこれから働く上で最優先にしたいポイント</t>
-  </si>
-  <si>
-    <t>②貴社の魅力がマッチしていると、だから貴社を志望している</t>
   </si>
   <si>
     <t>１．戦略を一つに絞る</t>
@@ -301,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +381,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,17 +435,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,9 +475,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -543,7 +621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,157 +771,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCB8AF-8B67-458A-B2F2-8272728B276E}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="1" max="2" width="3" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="3" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:3" ht="15.75"/>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B12" t="s">
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B13" t="s">
+    <row r="13" spans="1:3">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B17" t="s">
+    <row r="15" spans="1:3" ht="15.75"/>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B18" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B19" t="s">
+    <row r="18" spans="1:3">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B21" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B27" t="s">
+    <row r="26" spans="1:3" ht="15.75">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B29" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B31" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B33" t="s">
+    <row r="33" spans="1:2">
+      <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B37" t="s">
+    <row r="35" spans="1:2">
+      <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B38" t="s">
+    <row r="37" spans="1:2">
+      <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A40" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B42" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B43" t="s">
+    <row r="43" spans="1:2">
+      <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B44" t="s">
+    <row r="45" spans="1:2">
+      <c r="B45" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B46" t="s">
+    <row r="47" spans="1:2">
+      <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B47" t="s">
+    <row r="49" spans="1:2">
+      <c r="B49" s="4" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75">
+      <c r="C70" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,94 +1007,94 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="2" width="3.125" style="2"/>
-    <col min="3" max="3" width="152.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.125" style="2"/>
+    <col min="1" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="152.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C20" s="2" t="s">
-        <v>13</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -956,124 +1108,124 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C3:C27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="2" width="3.125" style="2"/>
-    <col min="3" max="3" width="152.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.125" style="2"/>
+    <col min="1" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="152.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A29" s="3"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
+++ b/01 応募企業/03 ソプラ株式会社/最終面接対策_ソプラ株式会社.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\01 応募企業\03 ソプラ株式会社\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5415E25E-3CDC-48DC-8E15-C552D7289B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BDDF27-638B-4C64-98A4-E5F10FB8117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
+    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>１．自己紹介</t>
   </si>
@@ -339,13 +339,35 @@
   </si>
   <si>
     <t>また、2社目のSESでも営業にその旨を伝えてはいましたが、紹介される案件は今までと似たような案件ばかりでした。</t>
+  </si>
+  <si>
+    <t>VBAを使用したマクロツールの作成が好きで、テスト工程を担当していた際に、テストデータを円滑に作成するツールを構築し、プロジェクトの効率化を図ることができたと感じています。</t>
+    <rPh sb="25" eb="27">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>エンカツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +422,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -435,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +488,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -475,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -621,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -771,231 +805,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCB8AF-8B67-458A-B2F2-8272728B276E}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="3" style="4" customWidth="1"/>
     <col min="3" max="16384" width="3" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75"/>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="4" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="4" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75"/>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="C16" s="4" t="s">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="4" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B33" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B45" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B47" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B56" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B57" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B58" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B60" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B61" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="3" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A63" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B65" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B67" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="C70" s="4" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,89 +1064,89 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="3.125" style="1"/>
     <col min="3" max="3" width="152.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1111,120 +1165,120 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="3.125" style="1"/>
     <col min="3" max="3" width="152.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
       <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
     </row>
   </sheetData>
